--- a/Project-Plan.xlsx
+++ b/Project-Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grace\Desktop\MSCBIS\SS 2021\Master Thesis Proposal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\Master Thesis Proposal\root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576B01D1-9DFA-4EA5-B7DC-C0211A1395CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C52EBD6-BD6D-4F14-BB00-45BE5811BC3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BCEA8555-7166-43F5-B66C-1440F3D81AFF}"/>
   </bookViews>
@@ -41,18 +41,36 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{8305BB40-BAD7-45B7-990F-CDE3FC6F9253}">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     Include Project Plan in Master Thesis Proposal</t>
+        </r>
       </text>
     </comment>
     <comment ref="E5" authorId="1" shapeId="0" xr:uid="{3017ED41-C97B-4D18-8479-DF57A7AE5D73}">
       <text>
-        <t>[Kommentarthread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     Thesis Map, not forgetti as last part of Chapter 1</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -60,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Deadline 1</t>
   </si>
@@ -156,9 +174,6 @@
   </si>
   <si>
     <t>Last Review</t>
-  </si>
-  <si>
-    <t>What kind of previous knowledge can be assumed about the reader?</t>
   </si>
 </sst>
 </file>
@@ -573,7 +588,7 @@
   <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,13 +776,11 @@
       <c r="AN5" s="10"/>
       <c r="AO5" s="10"/>
     </row>
-    <row r="6" spans="1:41" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
